--- a/stock_historical_data/1wk/PATELENG.NS.xlsx
+++ b/stock_historical_data/1wk/PATELENG.NS.xlsx
@@ -56861,7 +56861,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PATELENG.NS.xlsx
+++ b/stock_historical_data/1wk/PATELENG.NS.xlsx
@@ -53891,7 +53891,9 @@
       <c r="P1008" t="n">
         <v>0</v>
       </c>
-      <c r="Q1008" t="inlineStr"/>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PATELENG.NS.xlsx
+++ b/stock_historical_data/1wk/PATELENG.NS.xlsx
@@ -56973,7 +56973,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PATELENG.NS.xlsx
+++ b/stock_historical_data/1wk/PATELENG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1009"/>
+  <dimension ref="A1:R1011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56977,6 +56977,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>67.65000152587891</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>74.40000152587891</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>67.65000152587891</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>69.44000244140625</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>69.44000244140625</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>81921815</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>69.05999755859375</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>71.40000152587891</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>64.98000335693359</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>65.79000091552734</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>65.79000091552734</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>37124697</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/PATELENG.NS.xlsx
+++ b/stock_historical_data/1wk/PATELENG.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1011"/>
+  <dimension ref="A1:R1046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -56909,7 +56909,7 @@
         <v>23</v>
       </c>
       <c r="O1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1008" t="n">
         <v>0</v>
@@ -57021,7 +57021,7 @@
         <v>25</v>
       </c>
       <c r="O1010" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1010" t="n">
         <v>0</v>
@@ -57029,7 +57029,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57083,7 +57085,1829 @@
       <c r="Q1011" t="n">
         <v>0</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>66.15000152587891</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>70</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>65.20999908447266</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="n">
+        <v>42386193</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>61.5099983215332</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>60.7599983215332</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>61.18999862670898</v>
+      </c>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="n">
+        <v>95276259</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>61.54999923706055</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>62.29999923706055</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>58.88999938964844</v>
+      </c>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="n">
+        <v>35276210</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>58.29999923706055</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>55.84000015258789</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>60.41999816894531</v>
+      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="n">
+        <v>30072343</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>60.7599983215332</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>56.79999923706055</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>56.93000030517578</v>
+      </c>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="n">
+        <v>27700391</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>57.2599983215332</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>52.79999923706055</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>53.83000183105469</v>
+      </c>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="n">
+        <v>38253943</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>54</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>56.13000106811523</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>50.95999908447266</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>54.66999816894531</v>
+      </c>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="n">
+        <v>37832378</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>55.20000076293945</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>56.65999984741211</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>52.81000137329102</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>54.52999877929688</v>
+      </c>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="n">
+        <v>36545778</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>54.81000137329102</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>57.45000076293945</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>57.20999908447266</v>
+      </c>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="n">
+        <v>38337348</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>60.70000076293945</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>56.75</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>57.04000091552734</v>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="n">
+        <v>40195126</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>57.04000091552734</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>55.11999893188477</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>59.81000137329102</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>51357301</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>62.79999923706055</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>56.36000061035156</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>58.7599983215332</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>46676312</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>61.38000106811523</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>57.95999908447266</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>22952200</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>57.5099983215332</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>58.11000061035156</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>54.06000137329102</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>55.68999862670898</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>18694399</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>56.18999862670898</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>56.47000122070312</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>52.20999908447266</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>54.61999893188477</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>18435653</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>54.79999923706055</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>53.5099983215332</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>55.2599983215332</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>24465688</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>55.47999954223633</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>55.7599983215332</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>46.86000061035156</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>47.63999938964844</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>26520239</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>47.70999908447266</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>52.27999877929688</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>52.08000183105469</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>17671229</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>52.08000183105469</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>49.84000015258789</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>17333184</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>51.20000076293945</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>46.90000152587891</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>51.11999893188477</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>33211868</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>54.40000152587891</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>50.61000061035156</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>51.68999862670898</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>22306237</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>54.09999847412109</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>50.84000015258789</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>53.20999908447266</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>17445210</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>53.4900016784668</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>57.90000152587891</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>52.54999923706055</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>57.47999954223633</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>33254775</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>57.54999923706055</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>59.40000152587891</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>55.45000076293945</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>57.93999862670898</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>27296401</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>58.20000076293945</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>59.54999923706055</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>52.20999908447266</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>53.04999923706055</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>21358333</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>53.29999923706055</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>53.97000122070312</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>51.79999923706055</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>51.9900016784668</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>9326467</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>51.9900016784668</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>53.54000091552734</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>52.65000152587891</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>12081625</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>52.65000152587891</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>52.79999923706055</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>47.5099983215332</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>48.27999877929688</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>19683762</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>48.29000091552734</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>51.83000183105469</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>51.54999923706055</v>
+      </c>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="n">
+        <v>16031025</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>52.20000076293945</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>53.70000076293945</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>48.95000076293945</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>49.59999847412109</v>
+      </c>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="n">
+        <v>14438246</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>49.59999847412109</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>50.66999816894531</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>44.61000061035156</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>48.70999908447266</v>
+      </c>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="n">
+        <v>18099127</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>48.95000076293945</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>47.11999893188477</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>47.43999862670898</v>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="n">
+        <v>9195495</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>47.59999847412109</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>48.5099983215332</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>42.61000061035156</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>44.56000137329102</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>23185637</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>44.7400016784668</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>46.22000122070312</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>42.59999847412109</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>44.95999908447266</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>15934193</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>44.0099983215332</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>44.61000061035156</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>41.27000045776367</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>43.43999862670898</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>10550628</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PATELENG.NS.xlsx
+++ b/stock_historical_data/1wk/PATELENG.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1046"/>
+  <dimension ref="A1:R1050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57139,7 +57139,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57191,7 +57193,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57243,7 +57247,9 @@
       <c r="Q1014" t="n">
         <v>1</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57295,7 +57301,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57347,7 +57355,9 @@
       <c r="Q1016" t="n">
         <v>2</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -57399,7 +57409,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -57451,7 +57463,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57503,7 +57517,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57555,7 +57571,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57607,7 +57625,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57659,7 +57679,9 @@
       <c r="Q1022" t="n">
         <v>0</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57711,7 +57733,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57763,7 +57787,9 @@
       <c r="Q1024" t="n">
         <v>1</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57815,7 +57841,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57867,7 +57895,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57919,7 +57949,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -57971,7 +58003,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58023,7 +58057,9 @@
       <c r="Q1029" t="n">
         <v>2</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58075,7 +58111,9 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58127,7 +58165,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58179,7 +58219,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58231,7 +58273,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58283,7 +58327,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58335,7 +58381,9 @@
       <c r="Q1035" t="n">
         <v>1</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58387,7 +58435,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58439,7 +58489,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58491,7 +58543,9 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58543,7 +58597,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58595,7 +58651,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58647,7 +58705,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58699,7 +58759,9 @@
       <c r="Q1042" t="n">
         <v>2</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58751,7 +58813,9 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58803,7 +58867,9 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58855,7 +58921,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -58907,7 +58975,217 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>43.43999862670898</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>44.09999847412109</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>40.45999908447266</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>43.47999954223633</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>17686981</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>43.0099983215332</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>43.81000137329102</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>40.2400016784668</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>15602784</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>40.77999877929688</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>43.59999847412109</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>38.52999877929688</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>43.20999908447266</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>18721659</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>44.40000152587891</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>39.08000183105469</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>30290124</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
